--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>id|行号</t>
   </si>
@@ -202,11 +202,196 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制：稀有品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_pt_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送基础炮座</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",29,</t>
+  </si>
+  <si>
+    <t>"buyitem",30,</t>
+  </si>
+  <si>
+    <t>"buyitem",31,</t>
+  </si>
+  <si>
+    <t>"buyitem",28,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",32,</t>
+  </si>
+  <si>
+    <t>"buyitem",33,</t>
+  </si>
+  <si>
+    <t>"buyitem",34,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",35,</t>
+  </si>
+  <si>
+    <t>"buyitem",36,</t>
+  </si>
+  <si>
+    <t>1万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>雷霆幻影</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>闪耀风暴</t>
+    <t>是否花费1万福利券购买【雷霆幻影】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费2万福利券购买【闪耀风暴】3天使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -214,188 +399,47 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>是否花费5万福利券购买【金币使者】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费10万福利券购买【核能风暴】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费15万福利券购买【死灵之光】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万福利券购买【神龙之力】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>绿芒</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>是否花费2万福利券购买【绿芒】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>寒霜</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制：稀有品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_pt_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青柠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金焰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送基础炮座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",29,</t>
-  </si>
-  <si>
-    <t>"buyitem",30,</t>
-  </si>
-  <si>
-    <t>"buyitem",31,</t>
-  </si>
-  <si>
-    <t>"buyitem",28,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",32,</t>
-  </si>
-  <si>
-    <t>"buyitem",33,</t>
-  </si>
-  <si>
-    <t>"buyitem",34,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",35,</t>
-  </si>
-  <si>
-    <t>"buyitem",36,</t>
-  </si>
-  <si>
-    <t>1万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券购买</t>
+    <t>是否花费5万福利券购买【寒霜】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费10万福利券购买【金焰】3天使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -493,6 +537,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -501,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -818,11 +876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,15 +890,16 @@
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
-    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +936,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -898,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -907,14 +972,14 @@
         <v>19</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -922,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -934,25 +999,31 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -972,25 +1043,31 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1010,25 +1087,31 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1036,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1048,25 +1131,31 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>58</v>
+      <c r="M6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1086,25 +1175,31 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1112,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1124,25 +1219,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1162,22 +1263,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1197,25 +1298,31 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1235,25 +1342,31 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1261,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -1273,22 +1386,28 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>id|行号</t>
   </si>
@@ -322,35 +322,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"buyitem",29,</t>
-  </si>
-  <si>
-    <t>"buyitem",30,</t>
-  </si>
-  <si>
-    <t>"buyitem",31,</t>
-  </si>
-  <si>
-    <t>"buyitem",28,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",32,</t>
-  </si>
-  <si>
-    <t>"buyitem",33,</t>
-  </si>
-  <si>
-    <t>"buyitem",34,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",35,</t>
-  </si>
-  <si>
-    <t>"buyitem",36,</t>
-  </si>
-  <si>
     <t>1万福利券购买</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -440,6 +411,10 @@
   </si>
   <si>
     <t>是否花费10万福利券购买【金焰】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay",“item”,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1005,22 +980,22 @@
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1055,16 +1030,16 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1093,22 +1068,22 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1137,22 +1112,22 @@
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1181,22 +1156,22 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1231,16 +1206,16 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1304,22 +1279,22 @@
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1348,22 +1323,22 @@
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1398,16 +1373,16 @@
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -218,38 +218,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_pt_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_p0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -262,10 +230,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金焰</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -274,10 +238,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>神龙之力</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -415,6 +375,46 @@
   </si>
   <si>
     <t>"shop_bay",“item”,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -853,9 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -974,28 +974,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1017,8 +1017,8 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
+      <c r="G4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1030,16 +1030,16 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1061,29 +1061,29 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
+      <c r="G5" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1105,29 +1105,29 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
+      <c r="G6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1150,28 +1150,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1194,28 +1194,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1237,20 +1237,20 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1272,29 +1272,29 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
+      <c r="G10" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1316,29 +1316,29 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
+      <c r="G11" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -378,43 +378,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_dz_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_dz_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_dz_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_dz_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pt_01</t>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_pt_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -851,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1017,8 +1017,8 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>72</v>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1061,8 +1061,8 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>71</v>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1105,8 +1105,8 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>70</v>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -1316,8 +1316,8 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>66</v>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -1384,6 +1384,36 @@
       <c r="N12" s="7" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay",“item”,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_p1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -416,6 +412,9 @@
   <si>
     <t>3dby_icon_pt_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","item”,</t>
   </si>
 </sst>
 </file>
@@ -855,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -989,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>49</v>
@@ -1018,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1033,7 +1032,7 @@
         <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>50</v>
@@ -1062,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1077,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>52</v>
@@ -1106,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1121,7 +1120,7 @@
         <v>43</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>54</v>
@@ -1150,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -1165,7 +1164,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>56</v>
@@ -1194,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -1209,7 +1208,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>57</v>
@@ -1238,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1273,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -1288,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>59</v>
@@ -1317,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1332,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>61</v>
@@ -1361,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -1376,7 +1375,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>62</v>

--- a/config_ios提审/item_gun_config.xlsx
+++ b/config_ios提审/item_gun_config.xlsx
@@ -258,163 +258,163 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费1万福利券购买【雷霆幻影】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费2万福利券购买【闪耀风暴】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费5万福利券购买【金币使者】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费10万福利券购买【核能风暴】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费15万福利券购买【死灵之光】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万福利券购买【神龙之力】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费2万福利券购买【绿芒】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费5万福利券购买【寒霜】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费10万福利券购买【金焰】3天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_pt_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","item",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_anniu_hint|按钮上的文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_hint|提示文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆幻影</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费1万福利券购买【雷霆幻影】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费2万福利券购买【闪耀风暴】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费5万福利券购买【金币使者】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费10万福利券购买【核能风暴】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费15万福利券购买【死灵之光】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万福利券购买【神龙之力】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费2万福利券购买【绿芒】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费5万福利券购买【寒霜】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费10万福利券购买【金焰】3天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_pt_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","item",</t>
+    <t>死灵之光：攻击指定点，随机捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -974,28 +974,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1030,16 +1030,16 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1062,28 +1062,28 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1106,28 +1106,28 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1150,28 +1150,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1273,28 +1273,28 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1317,28 +1317,28 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -1370,19 +1370,19 @@
         <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
